--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H2">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I2">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J2">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>396.393637548824</v>
+        <v>1080.763489328977</v>
       </c>
       <c r="R2">
-        <v>396.393637548824</v>
+        <v>9726.871403960791</v>
       </c>
       <c r="S2">
-        <v>0.005950388912726889</v>
+        <v>0.01240168288003864</v>
       </c>
       <c r="T2">
-        <v>0.005950388912726889</v>
+        <v>0.01240168288003864</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H3">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I3">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J3">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>786.4469434486474</v>
+        <v>1660.380956782871</v>
       </c>
       <c r="R3">
-        <v>786.4469434486474</v>
+        <v>14943.42861104584</v>
       </c>
       <c r="S3">
-        <v>0.0118056011233742</v>
+        <v>0.01905275140156812</v>
       </c>
       <c r="T3">
-        <v>0.0118056011233742</v>
+        <v>0.01905275140156812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H4">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I4">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J4">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>369.2046000621254</v>
+        <v>829.6807554793512</v>
       </c>
       <c r="R4">
-        <v>369.2046000621254</v>
+        <v>7467.12679931416</v>
       </c>
       <c r="S4">
-        <v>0.005542245764393335</v>
+        <v>0.009520526667230673</v>
       </c>
       <c r="T4">
-        <v>0.005542245764393335</v>
+        <v>0.009520526667230671</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H5">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I5">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J5">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>414.4010918996194</v>
+        <v>870.8379887092557</v>
       </c>
       <c r="R5">
-        <v>414.4010918996194</v>
+        <v>7837.541898383301</v>
       </c>
       <c r="S5">
-        <v>0.006220704443970024</v>
+        <v>0.009992802942083342</v>
       </c>
       <c r="T5">
-        <v>0.006220704443970024</v>
+        <v>0.009992802942083342</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H6">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I6">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J6">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>309.454032231536</v>
+        <v>663.3582361489933</v>
       </c>
       <c r="R6">
-        <v>309.454032231536</v>
+        <v>5970.22412534094</v>
       </c>
       <c r="S6">
-        <v>0.004645311296557726</v>
+        <v>0.007611987786235655</v>
       </c>
       <c r="T6">
-        <v>0.004645311296557726</v>
+        <v>0.007611987786235654</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H7">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I7">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J7">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>584.8461629857976</v>
+        <v>1320.584380108361</v>
       </c>
       <c r="R7">
-        <v>584.8461629857976</v>
+        <v>11885.25942097525</v>
       </c>
       <c r="S7">
-        <v>0.008779308733109805</v>
+        <v>0.0151536102580637</v>
       </c>
       <c r="T7">
-        <v>0.008779308733109805</v>
+        <v>0.0151536102580637</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H8">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I8">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J8">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>4015.127574488564</v>
+        <v>5221.196246076547</v>
       </c>
       <c r="R8">
-        <v>4015.127574488564</v>
+        <v>46990.76621468893</v>
       </c>
       <c r="S8">
-        <v>0.06027233623162789</v>
+        <v>0.05991284933070087</v>
       </c>
       <c r="T8">
-        <v>0.06027233623162789</v>
+        <v>0.05991284933070087</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H9">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I9">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J9">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>7966.033027268201</v>
+        <v>8021.343156211003</v>
       </c>
       <c r="R9">
-        <v>7966.033027268201</v>
+        <v>72192.08840589903</v>
       </c>
       <c r="S9">
-        <v>0.1195806141011396</v>
+        <v>0.09204433261995275</v>
       </c>
       <c r="T9">
-        <v>0.1195806141011396</v>
+        <v>0.09204433261995278</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H10">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I10">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J10">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>3739.725943898061</v>
+        <v>4008.209093592108</v>
       </c>
       <c r="R10">
-        <v>3739.725943898061</v>
+        <v>36073.88184232897</v>
       </c>
       <c r="S10">
-        <v>0.05613819619006179</v>
+        <v>0.04599390947827024</v>
       </c>
       <c r="T10">
-        <v>0.05613819619006179</v>
+        <v>0.04599390947827024</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H11">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I11">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J11">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>4197.527642656452</v>
+        <v>4207.040747104288</v>
       </c>
       <c r="R11">
-        <v>4197.527642656452</v>
+        <v>37863.3667239386</v>
       </c>
       <c r="S11">
-        <v>0.06301040072231526</v>
+        <v>0.04827548832296526</v>
       </c>
       <c r="T11">
-        <v>0.06301040072231526</v>
+        <v>0.04827548832296527</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H12">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I12">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J12">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>3134.503937885416</v>
+        <v>3204.700719984085</v>
       </c>
       <c r="R12">
-        <v>3134.503937885416</v>
+        <v>28842.30647985676</v>
       </c>
       <c r="S12">
-        <v>0.04705301930229603</v>
+        <v>0.03677370900024587</v>
       </c>
       <c r="T12">
-        <v>0.04705301930229603</v>
+        <v>0.03677370900024587</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.9799940683674</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H13">
-        <v>54.9799940683674</v>
+        <v>165.227989</v>
       </c>
       <c r="I13">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J13">
-        <v>0.4349814342873793</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>5923.990027586848</v>
+        <v>6379.77714470173</v>
       </c>
       <c r="R13">
-        <v>5923.990027586848</v>
+        <v>57417.99430231557</v>
       </c>
       <c r="S13">
-        <v>0.08892686773993863</v>
+        <v>0.07320748135471634</v>
       </c>
       <c r="T13">
-        <v>0.08892686773993863</v>
+        <v>0.07320748135471634</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.00213905512072</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H14">
-        <v>7.00213905512072</v>
+        <v>40.439815</v>
       </c>
       <c r="I14">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J14">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>511.3583963952098</v>
+        <v>1277.896145489188</v>
       </c>
       <c r="R14">
-        <v>511.3583963952098</v>
+        <v>11501.0653094027</v>
       </c>
       <c r="S14">
-        <v>0.007676160876737275</v>
+        <v>0.01466376585299006</v>
       </c>
       <c r="T14">
-        <v>0.007676160876737275</v>
+        <v>0.01466376585299006</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.00213905512072</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H15">
-        <v>7.00213905512072</v>
+        <v>40.439815</v>
       </c>
       <c r="I15">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J15">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>1014.537595352501</v>
+        <v>1963.236587529302</v>
       </c>
       <c r="R15">
-        <v>1014.537595352501</v>
+        <v>17669.12928776372</v>
       </c>
       <c r="S15">
-        <v>0.01522954126171249</v>
+        <v>0.02252799786208955</v>
       </c>
       <c r="T15">
-        <v>0.01522954126171249</v>
+        <v>0.02252799786208955</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.00213905512072</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H16">
-        <v>7.00213905512072</v>
+        <v>40.439815</v>
       </c>
       <c r="I16">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J16">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>476.2838107012986</v>
+        <v>981.0155967351424</v>
       </c>
       <c r="R16">
-        <v>476.2838107012986</v>
+        <v>8829.14037061628</v>
       </c>
       <c r="S16">
-        <v>0.00714964529711768</v>
+        <v>0.01125708302621776</v>
       </c>
       <c r="T16">
-        <v>0.00714964529711768</v>
+        <v>0.01125708302621776</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.00213905512072</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H17">
-        <v>7.00213905512072</v>
+        <v>40.439815</v>
       </c>
       <c r="I17">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J17">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>534.5884942265569</v>
+        <v>1029.679962456961</v>
       </c>
       <c r="R17">
-        <v>534.5884942265569</v>
+        <v>9267.119662112651</v>
       </c>
       <c r="S17">
-        <v>0.008024875143272854</v>
+        <v>0.01181550310350491</v>
       </c>
       <c r="T17">
-        <v>0.008024875143272854</v>
+        <v>0.01181550310350492</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.00213905512072</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H18">
-        <v>7.00213905512072</v>
+        <v>40.439815</v>
       </c>
       <c r="I18">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J18">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>399.2039798077211</v>
+        <v>784.3556350886967</v>
       </c>
       <c r="R18">
-        <v>399.2039798077211</v>
+        <v>7059.20071579827</v>
       </c>
       <c r="S18">
-        <v>0.005992575839645587</v>
+        <v>0.009000424188626892</v>
       </c>
       <c r="T18">
-        <v>0.005992575839645587</v>
+        <v>0.009000424188626892</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.00213905512072</v>
+        <v>13.47993833333333</v>
       </c>
       <c r="H19">
-        <v>7.00213905512072</v>
+        <v>40.439815</v>
       </c>
       <c r="I19">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="J19">
-        <v>0.05539834154017269</v>
+        <v>0.08718242237205706</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>754.4671955171655</v>
+        <v>1561.460676453347</v>
       </c>
       <c r="R19">
-        <v>754.4671955171655</v>
+        <v>14053.14608808012</v>
       </c>
       <c r="S19">
-        <v>0.01132554312168679</v>
+        <v>0.0179176483386279</v>
       </c>
       <c r="T19">
-        <v>0.01132554312168679</v>
+        <v>0.0179176483386279</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.9830157798922</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H20">
-        <v>10.9830157798922</v>
+        <v>43.595609</v>
       </c>
       <c r="I20">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J20">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>802.0773784379141</v>
+        <v>1377.61907915142</v>
       </c>
       <c r="R20">
-        <v>802.0773784379141</v>
+        <v>12398.57171236278</v>
       </c>
       <c r="S20">
-        <v>0.01204023447328456</v>
+        <v>0.0158080793048758</v>
       </c>
       <c r="T20">
-        <v>0.01204023447328456</v>
+        <v>0.0158080793048758</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.9830157798922</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H21">
-        <v>10.9830157798922</v>
+        <v>43.595609</v>
       </c>
       <c r="I21">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J21">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>1591.325498013592</v>
+        <v>2116.441300347732</v>
       </c>
       <c r="R21">
-        <v>1591.325498013592</v>
+        <v>19047.97170312959</v>
       </c>
       <c r="S21">
-        <v>0.02388788492790421</v>
+        <v>0.0242860108620302</v>
       </c>
       <c r="T21">
-        <v>0.02388788492790421</v>
+        <v>0.0242860108620302</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.9830157798922</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H22">
-        <v>10.9830157798922</v>
+        <v>43.595609</v>
       </c>
       <c r="I22">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J22">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>747.0620859513002</v>
+        <v>1057.570920593156</v>
       </c>
       <c r="R22">
-        <v>747.0620859513002</v>
+        <v>9518.138285338409</v>
       </c>
       <c r="S22">
-        <v>0.01121438270516062</v>
+        <v>0.01213554983106442</v>
       </c>
       <c r="T22">
-        <v>0.01121438270516062</v>
+        <v>0.01213554983106442</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.9830157798922</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H23">
-        <v>10.9830157798922</v>
+        <v>43.595609</v>
       </c>
       <c r="I23">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J23">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>838.5143199270354</v>
+        <v>1110.032897984532</v>
       </c>
       <c r="R23">
-        <v>838.5143199270354</v>
+        <v>9990.296081860792</v>
       </c>
       <c r="S23">
-        <v>0.01258720080198563</v>
+        <v>0.01273754722761928</v>
       </c>
       <c r="T23">
-        <v>0.01258720080198563</v>
+        <v>0.01273754722761929</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.9830157798922</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H24">
-        <v>10.9830157798922</v>
+        <v>43.595609</v>
       </c>
       <c r="I24">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J24">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>626.1606025115389</v>
+        <v>845.5642436611913</v>
       </c>
       <c r="R24">
-        <v>626.1606025115389</v>
+        <v>7610.078192950722</v>
       </c>
       <c r="S24">
-        <v>0.009399492710858985</v>
+        <v>0.009702788545435239</v>
       </c>
       <c r="T24">
-        <v>0.009399492710858985</v>
+        <v>0.009702788545435241</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.9830157798922</v>
+        <v>14.53186966666667</v>
       </c>
       <c r="H25">
-        <v>10.9830157798922</v>
+        <v>43.595609</v>
       </c>
       <c r="I25">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="J25">
-        <v>0.08689356988285124</v>
+        <v>0.09398586015799162</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N25">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q25">
-        <v>1183.399108264807</v>
+        <v>1683.312080422119</v>
       </c>
       <c r="R25">
-        <v>1183.399108264807</v>
+        <v>15149.80872379907</v>
       </c>
       <c r="S25">
-        <v>0.01776437426365722</v>
+        <v>0.01931588438696669</v>
       </c>
       <c r="T25">
-        <v>0.01776437426365722</v>
+        <v>0.01931588438696669</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.46935703894511</v>
+        <v>2.664875</v>
       </c>
       <c r="H26">
-        <v>2.46935703894511</v>
+        <v>7.994625</v>
       </c>
       <c r="I26">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="J26">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N26">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q26">
-        <v>180.3343871954033</v>
+        <v>252.629752933625</v>
       </c>
       <c r="R26">
-        <v>180.3343871954033</v>
+        <v>2273.667776402625</v>
       </c>
       <c r="S26">
-        <v>0.002707055907320804</v>
+        <v>0.002898908144917593</v>
       </c>
       <c r="T26">
-        <v>0.002707055907320804</v>
+        <v>0.002898908144917593</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.46935703894511</v>
+        <v>2.664875</v>
       </c>
       <c r="H27">
-        <v>2.46935703894511</v>
+        <v>7.994625</v>
       </c>
       <c r="I27">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="J27">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N27">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q27">
-        <v>357.7843188541121</v>
+        <v>388.1160263363333</v>
       </c>
       <c r="R27">
-        <v>357.7843188541121</v>
+        <v>3493.044237027</v>
       </c>
       <c r="S27">
-        <v>0.00537081235012211</v>
+        <v>0.004453603333947191</v>
       </c>
       <c r="T27">
-        <v>0.00537081235012211</v>
+        <v>0.004453603333947192</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.46935703894511</v>
+        <v>2.664875</v>
       </c>
       <c r="H28">
-        <v>2.46935703894511</v>
+        <v>7.994625</v>
       </c>
       <c r="I28">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="J28">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N28">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q28">
-        <v>167.9650705637943</v>
+        <v>193.9388648303333</v>
       </c>
       <c r="R28">
-        <v>167.9650705637943</v>
+        <v>1745.449783473</v>
       </c>
       <c r="S28">
-        <v>0.00252137622538174</v>
+        <v>0.002225434448413677</v>
       </c>
       <c r="T28">
-        <v>0.00252137622538174</v>
+        <v>0.002225434448413677</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.46935703894511</v>
+        <v>2.664875</v>
       </c>
       <c r="H29">
-        <v>2.46935703894511</v>
+        <v>7.994625</v>
       </c>
       <c r="I29">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="J29">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N29">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q29">
-        <v>188.5266560354901</v>
+        <v>203.5594171204167</v>
       </c>
       <c r="R29">
-        <v>188.5266560354901</v>
+        <v>1832.03475408375</v>
       </c>
       <c r="S29">
-        <v>0.002830032617990451</v>
+        <v>0.0023358295901912</v>
       </c>
       <c r="T29">
-        <v>0.002830032617990451</v>
+        <v>0.002335829590191201</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.46935703894511</v>
+        <v>2.664875</v>
       </c>
       <c r="H30">
-        <v>2.46935703894511</v>
+        <v>7.994625</v>
       </c>
       <c r="I30">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="J30">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N30">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O30">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P30">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q30">
-        <v>140.7822880627015</v>
+        <v>155.06077782925</v>
       </c>
       <c r="R30">
-        <v>140.7822880627015</v>
+        <v>1395.54700046325</v>
       </c>
       <c r="S30">
-        <v>0.002113326972594107</v>
+        <v>0.001779311211710569</v>
       </c>
       <c r="T30">
-        <v>0.002113326972594107</v>
+        <v>0.001779311211710569</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.46935703894511</v>
+        <v>2.664875</v>
       </c>
       <c r="H31">
-        <v>2.46935703894511</v>
+        <v>7.994625</v>
       </c>
       <c r="I31">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="J31">
-        <v>0.01953664209625615</v>
+        <v>0.0172352611765461</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N31">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q31">
-        <v>266.0685349487634</v>
+        <v>308.6881718052083</v>
       </c>
       <c r="R31">
-        <v>266.0685349487634</v>
+        <v>2778.193546246875</v>
       </c>
       <c r="S31">
-        <v>0.003994038022846934</v>
+        <v>0.00354217444736587</v>
       </c>
       <c r="T31">
-        <v>0.003994038022846934</v>
+        <v>0.00354217444736587</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>45.5337773717097</v>
+        <v>57.46446033333334</v>
       </c>
       <c r="H32">
-        <v>45.5337773717097</v>
+        <v>172.393381</v>
       </c>
       <c r="I32">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="J32">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N32">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q32">
-        <v>3325.280917062927</v>
+        <v>5447.62227739541</v>
       </c>
       <c r="R32">
-        <v>3325.280917062927</v>
+        <v>49028.6004965587</v>
       </c>
       <c r="S32">
-        <v>0.04991683222502885</v>
+        <v>0.06251107166512272</v>
       </c>
       <c r="T32">
-        <v>0.04991683222502885</v>
+        <v>0.06251107166512274</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>45.5337773717097</v>
+        <v>57.46446033333334</v>
       </c>
       <c r="H33">
-        <v>45.5337773717097</v>
+        <v>172.393381</v>
       </c>
       <c r="I33">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="J33">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N33">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q33">
-        <v>6597.373836531733</v>
+        <v>8369.202307851281</v>
       </c>
       <c r="R33">
-        <v>6597.373836531733</v>
+        <v>75322.82077066152</v>
       </c>
       <c r="S33">
-        <v>0.09903524277726984</v>
+        <v>0.09603599122810992</v>
       </c>
       <c r="T33">
-        <v>0.09903524277726984</v>
+        <v>0.09603599122810995</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>45.5337773717097</v>
+        <v>57.46446033333334</v>
       </c>
       <c r="H34">
-        <v>45.5337773717097</v>
+        <v>172.393381</v>
       </c>
       <c r="I34">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="J34">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N34">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q34">
-        <v>3097.196561151206</v>
+        <v>4182.031879594497</v>
       </c>
       <c r="R34">
-        <v>3097.196561151206</v>
+        <v>37638.28691635047</v>
       </c>
       <c r="S34">
-        <v>0.0464929865977983</v>
+        <v>0.04798851337691311</v>
       </c>
       <c r="T34">
-        <v>0.0464929865977983</v>
+        <v>0.04798851337691311</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>45.5337773717097</v>
+        <v>57.46446033333334</v>
       </c>
       <c r="H35">
-        <v>45.5337773717097</v>
+        <v>172.393381</v>
       </c>
       <c r="I35">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="J35">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N35">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q35">
-        <v>3476.342484770876</v>
+        <v>4389.486205016235</v>
       </c>
       <c r="R35">
-        <v>3476.342484770876</v>
+        <v>39505.37584514612</v>
       </c>
       <c r="S35">
-        <v>0.05218446468045091</v>
+        <v>0.05036903675818509</v>
       </c>
       <c r="T35">
-        <v>0.05218446468045091</v>
+        <v>0.0503690367581851</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>45.5337773717097</v>
+        <v>57.46446033333334</v>
       </c>
       <c r="H36">
-        <v>45.5337773717097</v>
+        <v>172.393381</v>
       </c>
       <c r="I36">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="J36">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N36">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O36">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P36">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q36">
-        <v>2595.958891900624</v>
+        <v>3343.678002467188</v>
       </c>
       <c r="R36">
-        <v>2595.958891900624</v>
+        <v>30093.1020222047</v>
       </c>
       <c r="S36">
-        <v>0.03896875112269591</v>
+        <v>0.03836846326600583</v>
       </c>
       <c r="T36">
-        <v>0.03896875112269591</v>
+        <v>0.03836846326600583</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>45.5337773717097</v>
+        <v>57.46446033333334</v>
       </c>
       <c r="H37">
-        <v>45.5337773717097</v>
+        <v>172.393381</v>
       </c>
       <c r="I37">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="J37">
-        <v>0.3602464519192088</v>
+        <v>0.3716553242513339</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N37">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q37">
-        <v>4906.178104219969</v>
+        <v>6656.447001855463</v>
       </c>
       <c r="R37">
-        <v>4906.178104219969</v>
+        <v>59908.02301669917</v>
       </c>
       <c r="S37">
-        <v>0.07364817451596492</v>
+        <v>0.07638224795699722</v>
       </c>
       <c r="T37">
-        <v>0.07364817451596492</v>
+        <v>0.07638224795699722</v>
       </c>
     </row>
   </sheetData>
